--- a/2023.02 CSS3501_4 Text Analysis in Python/corpus index.xlsx
+++ b/2023.02 CSS3501_4 Text Analysis in Python/corpus index.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\kimep-data-science-lab\2023.02 CSS3501_4 Text Analysis in Python\corpus\zip\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\seoul\Dropbox\00 technical\github\kimep-data-science-lab\2023.02 CSS3501_4 Text Analysis in Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE3737E-16EA-4DD3-8137-CA21592AC8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CCDE46C-A62A-4F80-A2F1-D00D00DD6A16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1360" windowWidth="19200" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="840" yWindow="990" windowWidth="19200" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Filename</t>
   </si>
@@ -164,9 +164,6 @@
   </si>
   <si>
     <t>2016.12.10</t>
-  </si>
-  <si>
-    <t>Kazakh Parliament Approves Amnesty, Says “No” to Terrorists, Rapists, Drug Traffickers</t>
   </si>
   <si>
     <t>Public Safety Has Steadily Improved since Independence, Says Prosecutor General</t>
@@ -520,9 +517,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -560,15 +559,15 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>20220720</v>
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>20130504</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+      <c r="B2" s="4" t="s">
+        <v>67</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
+      <c r="C2" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -594,15 +593,15 @@
       <c r="Y2" s="4"/>
       <c r="Z2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>20220715</v>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>20140609</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
+      <c r="C3" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -628,15 +627,15 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>20220411</v>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>20141219</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
+      <c r="C4" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -664,13 +663,13 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>20211223</v>
+        <v>20150128</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -698,13 +697,13 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>20210615</v>
+        <v>20150630</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -732,13 +731,13 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>20210323</v>
+        <v>20150702</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -766,13 +765,13 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>20210305</v>
+        <v>20160407</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -800,13 +799,13 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>20191104</v>
+        <v>20160408</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -834,13 +833,13 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>20191022</v>
+        <v>20161103</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -868,13 +867,13 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>20190904</v>
+        <v>20161115</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -902,13 +901,13 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>20190614</v>
+        <v>20161210</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -936,13 +935,13 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>20190606</v>
+        <v>20170603</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -970,13 +969,13 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>20190605</v>
+        <v>20170903</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1004,13 +1003,13 @@
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>20180719</v>
+        <v>20170916</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1038,13 +1037,13 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>20180316</v>
+        <v>20171005</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1072,13 +1071,13 @@
     </row>
     <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>20180217</v>
+        <v>20171030</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1138,15 +1137,15 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>20171030</v>
+        <v>20180217</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1174,13 +1173,13 @@
     </row>
     <row r="20" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>20171005</v>
+        <v>20180316</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1208,13 +1207,13 @@
     </row>
     <row r="21" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>20170916</v>
+        <v>20180719</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1242,13 +1241,13 @@
     </row>
     <row r="22" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>20170903</v>
+        <v>20190605</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1276,13 +1275,13 @@
     </row>
     <row r="23" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>20170603</v>
+        <v>20190606</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1310,13 +1309,13 @@
     </row>
     <row r="24" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>20161210</v>
+        <v>20190614</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1344,13 +1343,13 @@
     </row>
     <row r="25" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>20161210</v>
+        <v>20190904</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1378,13 +1377,13 @@
     </row>
     <row r="26" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>20161115</v>
+        <v>20191022</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1412,13 +1411,13 @@
     </row>
     <row r="27" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>20161103</v>
+        <v>20191104</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1446,13 +1445,13 @@
     </row>
     <row r="28" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
-        <v>20160408</v>
+        <v>20210305</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1480,13 +1479,13 @@
     </row>
     <row r="29" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
-        <v>20160407</v>
+        <v>20210323</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -1514,13 +1513,13 @@
     </row>
     <row r="30" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
-        <v>20150702</v>
+        <v>20210615</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -1548,13 +1547,13 @@
     </row>
     <row r="31" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
-        <v>20150630</v>
+        <v>20211223</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1580,15 +1579,15 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>20150128</v>
+    <row r="32" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="3">
+        <v>20220411</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>62</v>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>63</v>
+      <c r="C32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1614,15 +1613,15 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>20141219</v>
+    <row r="33" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="3">
+        <v>20220715</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>64</v>
+      <c r="B33" s="3" t="s">
+        <v>5</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>65</v>
+      <c r="C33" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1648,15 +1647,15 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>20140609</v>
+    <row r="34" spans="1:26" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="3">
+        <v>20220720</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>66</v>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>67</v>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1683,15 +1682,9 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>20130504</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -28736,35 +28729,10 @@
       <c r="Y1000" s="4"/>
       <c r="Z1000" s="4"/>
     </row>
-    <row r="1001" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A1001" s="4"/>
-      <c r="B1001" s="4"/>
-      <c r="C1001" s="4"/>
-      <c r="D1001" s="4"/>
-      <c r="E1001" s="4"/>
-      <c r="F1001" s="4"/>
-      <c r="G1001" s="4"/>
-      <c r="H1001" s="4"/>
-      <c r="I1001" s="4"/>
-      <c r="J1001" s="4"/>
-      <c r="K1001" s="4"/>
-      <c r="L1001" s="4"/>
-      <c r="M1001" s="4"/>
-      <c r="N1001" s="4"/>
-      <c r="O1001" s="4"/>
-      <c r="P1001" s="4"/>
-      <c r="Q1001" s="4"/>
-      <c r="R1001" s="4"/>
-      <c r="S1001" s="4"/>
-      <c r="T1001" s="4"/>
-      <c r="U1001" s="4"/>
-      <c r="V1001" s="4"/>
-      <c r="W1001" s="4"/>
-      <c r="X1001" s="4"/>
-      <c r="Y1001" s="4"/>
-      <c r="Z1001" s="4"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Z1000">
+    <sortCondition ref="A2:A1000"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>